--- a/jett-core/templates/IfTagTemplate.xlsx
+++ b/jett-core/templates/IfTagTemplate.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="17115" windowHeight="10230"/>
+    <workbookView xWindow="120" yWindow="15" windowWidth="17115" windowHeight="10230" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vertical" sheetId="1" r:id="rId1"/>
     <sheet name="Horizontal" sheetId="2" r:id="rId2"/>
     <sheet name="Bodiless" sheetId="3" r:id="rId3"/>
+    <sheet name="RTS" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="95">
   <si>
     <t>If Tag Testing</t>
   </si>
@@ -295,19 +296,136 @@
   </si>
   <si>
     <t>&lt;jt:if test="${condFalse}" then="I'm true!"/&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;jt:if test="${pi &gt; 3}" then="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${pi}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" else="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${pi}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"/&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;jt:if test="${pi &lt; 3}" then="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="17"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>${pi}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" else="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>${pi}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -345,6 +463,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF008000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -642,7 +765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1463,7 +1586,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1515,4 +1640,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/jett-core/templates/IfTagTemplate.xlsx
+++ b/jett-core/templates/IfTagTemplate.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="96">
   <si>
     <t>If Tag Testing</t>
   </si>
@@ -383,12 +383,57 @@
       <t>/&gt;</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>&lt;jt:if test="${num &lt; 5}" then="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${num}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" else="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>${num}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" /&gt;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,6 +471,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1034,16 +1086,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1564,11 +1616,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="D10:E10"/>
     <mergeCell ref="B28:C29"/>
     <mergeCell ref="B32:C33"/>
     <mergeCell ref="B36:C37"/>
@@ -1577,6 +1624,11 @@
     <mergeCell ref="D15:E16"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E20"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1644,7 +1696,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1660,6 +1712,11 @@
         <v>94</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
